--- a/data/hotels_by_city/Houston/Houston_shard_49.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_49.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56427-d12513397-Reviews-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Best-Western-Plus-Pasadena-Inn-And-Suites.h18637769.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,417 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r574659862-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>12513397</t>
+  </si>
+  <si>
+    <t>574659862</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every good hotel just stay at 3 different ones including the hampton n this one out did them all nice clean room my wife loves it here and now we know were to book it at next time we come to town </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r574642357-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>574642357</t>
+  </si>
+  <si>
+    <t>So nice</t>
+  </si>
+  <si>
+    <t>Everything is comfortable. From the beds to the gym to the shower this is such a value hotel.We stayed here for 3 days and i have no complaints. My companions and I were able to work out great relax and sleep as it it were in the comfort of our own homes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r572529416-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>572529416</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>2-day per Week Pasadena Buest</t>
+  </si>
+  <si>
+    <t>The Best Western Plus in Pasadena continues to earn my highest praises for convenience, comfort, cleanliness and friendliness.Scheduling and checking out is a breeze, and hassle free.I also like the friendly email alerts and the awards program is a huge incentive for my continued patronage. Soon I will be a Diamond member.  Yeeee Haaaaa!Keep up the good work guys!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r567514194-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>567514194</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Couldn't ask for anything more!</t>
+  </si>
+  <si>
+    <t>Staff was helpful, check-in/out quick and easy. Great location! The room was unexpectedly, very nice; spacious, immaculately clean (and I'm really picky about cleanliness) beds were comfortable; breakfast was an added bonus. We were in the Houston/Pasadena area for a couple days with many family members. I chose this hotel even though family had recommended &amp; stayed at a couple other local hotels. All who came to our room wished they had chosen this Best Western. I wouldn't hesitate to stay here again.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r565876172-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>565876172</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Terrible breakfast and hard pillows.</t>
+  </si>
+  <si>
+    <t>If you can find another hotel try it first. For a brand new hotel they have a lot to work on. The internet was bad and breakfast was nonexistent. Terrible coffee. The pillows are hard and no other options were given.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>SANJAY P, General Manager at Best Western Plus Pasadena Inn &amp; Suites, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>If you can find another hotel try it first. For a brand new hotel they have a lot to work on. The internet was bad and breakfast was nonexistent. Terrible coffee. The pillows are hard and no other options were given.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r557650879-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>557650879</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Best Hotel Stay Ever!!!</t>
+  </si>
+  <si>
+    <t>The staff at Best Western Plus Pasadena have made my stay so wonderful!  I almost regret having to go home!  We jumped around from crappy hotel to crappier hotel till we found this lovely home away from home!  All of the staff here were the most pleasant and sweetest people I have ever met!  Especially the Director of Sales Mrs. Lena.  She treated me like family the whole time we were here.  All the staff from the front desk (Kayleigh) to the the housekeepers and even the breakfast host were so nice and hospitable to us!  If I were able to rate this hotel higher than a five a would!!!  I felt so safe here.  The other places we had to stay at my truck was broken in to, but here I have never had to worry about safety.  Every morning when I get up to go to work I am greeted by Mrs. Lena's smiling face and her truly sweet and caring words.  I have never felt so at home at a hotel before!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>SANJAY P, General Manager at Best Western Plus Pasadena Inn &amp; Suites, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>The staff at Best Western Plus Pasadena have made my stay so wonderful!  I almost regret having to go home!  We jumped around from crappy hotel to crappier hotel till we found this lovely home away from home!  All of the staff here were the most pleasant and sweetest people I have ever met!  Especially the Director of Sales Mrs. Lena.  She treated me like family the whole time we were here.  All the staff from the front desk (Kayleigh) to the the housekeepers and even the breakfast host were so nice and hospitable to us!  If I were able to rate this hotel higher than a five a would!!!  I felt so safe here.  The other places we had to stay at my truck was broken in to, but here I have never had to worry about safety.  Every morning when I get up to go to work I am greeted by Mrs. Lena's smiling face and her truly sweet and caring words.  I have never felt so at home at a hotel before!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r546300021-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>546300021</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>New hotel..located right off the Highway</t>
+  </si>
+  <si>
+    <t>We stayed here for 1 night due to it's location to the USS Texas and the Houston Space Center. New hotel, bright and spacious. they have a business center that works quite well and the breakfast is a typical BW. Internet in the room worked awesome.Bathroom was big and had a walk in shower.It is located right beside the main industrial part of town so you do have to drive for restaurants.If I had a minor complaint is that the ice dispensing machine was close to my room and being a light sleeper, I could hear when people were around it, otherwise, I would highly recommend this BW if you are looking for a place to stayMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed here for 1 night due to it's location to the USS Texas and the Houston Space Center. New hotel, bright and spacious. they have a business center that works quite well and the breakfast is a typical BW. Internet in the room worked awesome.Bathroom was big and had a walk in shower.It is located right beside the main industrial part of town so you do have to drive for restaurants.If I had a minor complaint is that the ice dispensing machine was close to my room and being a light sleeper, I could hear when people were around it, otherwise, I would highly recommend this BW if you are looking for a place to stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r543941023-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>543941023</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Fantatic Experience</t>
+  </si>
+  <si>
+    <t>Chris at the front desk was exceptional, I arrived late long after restaurant's were closed, and Chris went into the back and returned with a plate of lasagna and potato salad.  What a will appreciated surprise.  The hotel is remarkably well appointed and exceptionally clean.  I travel a lot on business and this hotel and its staff stand out as a great find, Thank You much appreciated</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r543477677-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>543477677</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>2 Nights</t>
+  </si>
+  <si>
+    <t>I have family in Pasadena and frequently stay in hotels in this area when visiting. This hotel is fairly new and still very clean. Their staff is friendly and go out of their way to help. I was greeted with a friendly smile whether it was 10 am or 10 pm. MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Best Western Plus Pasadena Inn &amp; Suites, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2017</t>
+  </si>
+  <si>
+    <t>I have family in Pasadena and frequently stay in hotels in this area when visiting. This hotel is fairly new and still very clean. Their staff is friendly and go out of their way to help. I was greeted with a friendly smile whether it was 10 am or 10 pm. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r537526744-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>537526744</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>This hotel is absolutely beautiful!  More important is the outstanding customer service we received from Elana, Front desk. We were provided service without even needing to ask. Made our experience fun &amp; memorable!!</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r536508197-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>536508197</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel I've ever stayed at in Pasadena Texas</t>
+  </si>
+  <si>
+    <t>I have travel the world and I was so pleased to see how clean and how lovely the entire hotel was. Chris was very welcoming and made my check in so easy and quickly she was a doll! So helpful! I will definitely be coming back next month. Thank you Best Western You guys are a PLUS</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r536461956-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>536461956</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>The housekeeping does a very good job on keeping the rooms clean specially Mrs.Gena. The breakfast is great delicious waffles. Smells clean everywhere you go. Great staff very friendly. Thank you for your service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r534191194-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>534191194</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>BEST HOTEL IVE BEEN TO SO FAR</t>
+  </si>
+  <si>
+    <t>SUZY@frontdesk made me feel right at home with her superb customer service And was very accommodating to me.Lina the sales director was also very helpful and kind in helping me while i was there.. Christina amd John @frontdesk were also nice and polite with me....but the other two ladies were very rude and unprofeasional.i believe they work night shift on weekends.WHILE STAYING THERE I SUGGEST WORKING WITH LINA , SUZY,CHRISTINA OR JOHN... YOU WILL RECIEVE EXCELLENT SERVICE .VERY TOP NOTCH HOTEL ! EVERYTHINGS NEW!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r533903608-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>533903608</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Just WOW!!! :-D</t>
+  </si>
+  <si>
+    <t>I have traveled all over the world and I have never stayed in a more beautiful and simply fantastic hotel....ever! I am in the area to assist FEMA with hurricane relief support and was booked this room by my employer. I am in as suite with a full kitchen....so convenient! My suite and the entire hotel and parking surroundings are so well lit and designed! Free breakfast cannot be beat as well with delicious hot coffee available in the lobby 24/7. I'm sorry I work long hours every day because I would definitely enjoy my HUGE and comfortable suite to a greater extent. Oh, you also can't beat laundry services on site, too! I recommended this hotel to the FEMA colleagues I work with as well! My king size is heavenly, too! Book a room...you will not be disappointed! #VeryHappyMoreShow less</t>
+  </si>
+  <si>
+    <t>James B, Manager at Best Western Plus Pasadena Inn &amp; Suites, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>I have traveled all over the world and I have never stayed in a more beautiful and simply fantastic hotel....ever! I am in the area to assist FEMA with hurricane relief support and was booked this room by my employer. I am in as suite with a full kitchen....so convenient! My suite and the entire hotel and parking surroundings are so well lit and designed! Free breakfast cannot be beat as well with delicious hot coffee available in the lobby 24/7. I'm sorry I work long hours every day because I would definitely enjoy my HUGE and comfortable suite to a greater extent. Oh, you also can't beat laundry services on site, too! I recommended this hotel to the FEMA colleagues I work with as well! My king size is heavenly, too! Book a room...you will not be disappointed! #VeryHappyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r531229991-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>531229991</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>BEST Business Suite EVER!!</t>
+  </si>
+  <si>
+    <t>Brand new and beautiful--this hotel is wonderful. Great desk with lots of USB charging ports, plugs, and space to work. Also, a secure Internet connection that is reliable and fast. The room is large with a separate seating area, nice kitchenette that saved me tons on time and money, and a walk-in shower with a rain head. On-site guest laundry and fitness center, free hot breakfast and happy hours, and a staff that goes above and beyond to meet guest needs. Suzy, Pat, and Kayleigh always have smiles waiting when you go by the front desk. I'm staying long term, so I'm thrilled to find such a great hotel in this area. Highly recommend it!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Brand new and beautiful--this hotel is wonderful. Great desk with lots of USB charging ports, plugs, and space to work. Also, a secure Internet connection that is reliable and fast. The room is large with a separate seating area, nice kitchenette that saved me tons on time and money, and a walk-in shower with a rain head. On-site guest laundry and fitness center, free hot breakfast and happy hours, and a staff that goes above and beyond to meet guest needs. Suzy, Pat, and Kayleigh always have smiles waiting when you go by the front desk. I'm staying long term, so I'm thrilled to find such a great hotel in this area. Highly recommend it!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r527126731-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>527126731</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>5 stars!!</t>
+  </si>
+  <si>
+    <t>We have really enjoyed our stay here, Receptionist are courteous and try there best to accommodate you the fastest possible. Hotel is nice and clean, housekeeping does an amazing job! By the way breakfast is delicious, food is kept replenished and warm.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r523899052-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>523899052</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>GREAT PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>Very great place to stay... never had a problem  here. Great staff especially front desk lady ms Patricia. She does evening reception. Great cook!!!!  Very great attitude and very friendly.  Will vonte to b a loyal guest!!!! Thanks patricia</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r521422852-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>521422852</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Great pick!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We enter and had a welcoming staff, which was a nice feeling. The hotel is very nice looking, colors look fantastic. Our room was a good size. And bathroom shower had double sliding door. We had a king bed nice size room. Breakfast area had the average items. The pool is outside. Easy access to 610, 225, and Sam tollway.. I would come back again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r510285874-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>510285874</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Huge Rooms and Wonderful staff</t>
+  </si>
+  <si>
+    <t>The hotel is brand new with every amenity you would need.  I had a kitchen with separate eating area along with sofa and king bed.  It felt like an apartment!  Staff was very friendly and always greeted me.  Great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Renee S, Manager at Best Western Plus Pasadena Inn &amp; Suites, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is brand new with every amenity you would need.  I had a kitchen with separate eating area along with sofa and king bed.  It felt like an apartment!  Staff was very friendly and always greeted me.  Great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r509146433-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>509146433</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>GREAT PLACE!</t>
+  </si>
+  <si>
+    <t>I had work nearby and came to get a place to stay for the night. It is a very clean hotel, the staff is kind. They even serve breakfast and it's delicious. I will definitely be coming back. The wifi was super fast and they are the only brand new hotel in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had work nearby and came to get a place to stay for the night. It is a very clean hotel, the staff is kind. They even serve breakfast and it's delicious. I will definitely be coming back. The wifi was super fast and they are the only brand new hotel in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r507643751-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>507643751</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Quite A Deal</t>
+  </si>
+  <si>
+    <t>This hotel is one of the Best we've encountered in a while. The manager Ms Renea is fantastic. The staff is friendly, helpful, and makes you feel really welcome. I must admit the food was delicious, and enough so as not to run out of anything. This is a new hotel so for the price we were very satisfied. I would definitely recommend this hotel. It get's my 5 star rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>This hotel is one of the Best we've encountered in a while. The manager Ms Renea is fantastic. The staff is friendly, helpful, and makes you feel really welcome. I must admit the food was delicious, and enough so as not to run out of anything. This is a new hotel so for the price we were very satisfied. I would definitely recommend this hotel. It get's my 5 star rating.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +952,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +984,1388 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>134</v>
+      </c>
+      <c r="X15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>142</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>142</v>
+      </c>
+      <c r="O19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>165</v>
+      </c>
+      <c r="X20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>165</v>
+      </c>
+      <c r="X21" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>165</v>
+      </c>
+      <c r="X22" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_49.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_49.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r592616191-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>12513397</t>
+  </si>
+  <si>
+    <t>592616191</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Galveston and Houston trip</t>
+  </si>
+  <si>
+    <t>Great Hotel, also they have military discount, close to downtown and about 45 minutes drive to the beach. the staff were great. big Kudos to Gina (front desk) and Jessenia (Housekeeper Supervisor)..they both went above and beyond!! I would recommend anyone staying around the Houston area this hotel. the rooms are huge, stay on a King Suite plus sofa bed, great room. this particular hotel opened back in 2017 and still smell fresh like it's just opened, they keep the hotel very clean. great job Gina and Jessenia, keep up the good work!! make sure whoever is the supervisor for this two ladies that they get recognize for their everyday excellent job.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Great Hotel, also they have military discount, close to downtown and about 45 minutes drive to the beach. the staff were great. big Kudos to Gina (front desk) and Jessenia (Housekeeper Supervisor)..they both went above and beyond!! I would recommend anyone staying around the Houston area this hotel. the rooms are huge, stay on a King Suite plus sofa bed, great room. this particular hotel opened back in 2017 and still smell fresh like it's just opened, they keep the hotel very clean. great job Gina and Jessenia, keep up the good work!! make sure whoever is the supervisor for this two ladies that they get recognize for their everyday excellent job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r573588305-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>573588305</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Stayed for some 7 days on business and was delighted with the quality of the hotel.  The hotel was only opened in 2017, so everything is essentially new and is tastefully done.  The front desk were very helpful, always with a smile.   The room was great with a very comfortable bed, walk in shower and good quality furnishings + large TV!   The only downside was the loss of Wi-fi to both my i-phone and laptop.  But several phone calls to the (remote) IT tech guys eventually sorted the problem - but a pain to go through!  Another issue is the lack of a restaurant (and bar) at the hotel - but the free breakfast was excellent.  I knew about the lack of restaurant, but the hotel is a bit isolated, so it is essential to have a car to get to eateries - Denny's across the freeway is not the answer!  Some road noise from the freeway and the occasional train horn but only an issue for the light sleeper or someone with jet lag (count me in!). All-in-all a very pleasant stay, despite the Wi-Fi.lMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Stayed for some 7 days on business and was delighted with the quality of the hotel.  The hotel was only opened in 2017, so everything is essentially new and is tastefully done.  The front desk were very helpful, always with a smile.   The room was great with a very comfortable bed, walk in shower and good quality furnishings + large TV!   The only downside was the loss of Wi-fi to both my i-phone and laptop.  But several phone calls to the (remote) IT tech guys eventually sorted the problem - but a pain to go through!  Another issue is the lack of a restaurant (and bar) at the hotel - but the free breakfast was excellent.  I knew about the lack of restaurant, but the hotel is a bit isolated, so it is essential to have a car to get to eateries - Denny's across the freeway is not the answer!  Some road noise from the freeway and the occasional train horn but only an issue for the light sleeper or someone with jet lag (count me in!). All-in-all a very pleasant stay, despite the Wi-Fi.lMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r574659862-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
   </si>
   <si>
-    <t>56427</t>
-  </si>
-  <si>
-    <t>12513397</t>
-  </si>
-  <si>
     <t>574659862</t>
   </si>
   <si>
@@ -174,9 +222,6 @@
     <t xml:space="preserve">Every good hotel just stay at 3 different ones including the hampton n this one out did them all nice clean room my wife loves it here and now we know were to book it at next time we come to town </t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
@@ -192,9 +237,6 @@
     <t>Everything is comfortable. From the beds to the gym to the shower this is such a value hotel.We stayed here for 3 days and i have no complaints. My companions and I were able to work out great relax and sleep as it it were in the comfort of our own homes.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r572529416-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -210,6 +252,57 @@
     <t>The Best Western Plus in Pasadena continues to earn my highest praises for convenience, comfort, cleanliness and friendliness.Scheduling and checking out is a breeze, and hassle free.I also like the friendly email alerts and the awards program is a huge incentive for my continued patronage. Soon I will be a Diamond member.  Yeeee Haaaaa!Keep up the good work guys!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r571476687-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>571476687</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>great place to stay</t>
+  </si>
+  <si>
+    <t>we stayed for a few days everything was good staff is nice our room was clean.breakfast was good the hostess was very nice kept the area clean and always made sure the food was warm. i love the waffles they were tastyMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>SANJAY P, General Manager at Best Western Plus Pasadena Inn &amp; Suites, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>we stayed for a few days everything was good staff is nice our room was clean.breakfast was good the hostess was very nice kept the area clean and always made sure the food was warm. i love the waffles they were tastyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r568445707-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>568445707</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Front Desk Lady</t>
+  </si>
+  <si>
+    <t>I had the most pleasant stay here. As soon as I walked in I received the most warmest hospitality from Chris she is such a sweet heart! She went beyond to help me with my stay. I had came in very upset with the delay from the airport and I know I wasn't the best person to deal with at check in and well I was treated so well I had forgotten I was late to my family event. The hotel is so clean and so nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>SANJAY P, General Manager at Best Western Plus Pasadena Inn &amp; Suites, responded to this reviewResponded March 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2018</t>
+  </si>
+  <si>
+    <t>I had the most pleasant stay here. As soon as I walked in I received the most warmest hospitality from Chris she is such a sweet heart! She went beyond to help me with my stay. I had came in very upset with the delay from the airport and I know I wasn't the best person to deal with at check in and well I was treated so well I had forgotten I was late to my family event. The hotel is so clean and so nice!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r567514194-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -225,9 +318,6 @@
     <t>Staff was helpful, check-in/out quick and easy. Great location! The room was unexpectedly, very nice; spacious, immaculately clean (and I'm really picky about cleanliness) beds were comfortable; breakfast was an added bonus. We were in the Houston/Pasadena area for a couple days with many family members. I chose this hotel even though family had recommended &amp; stayed at a couple other local hotels. All who came to our room wished they had chosen this Best Western. I wouldn't hesitate to stay here again.</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r565876172-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -282,6 +372,36 @@
     <t>The staff at Best Western Plus Pasadena have made my stay so wonderful!  I almost regret having to go home!  We jumped around from crappy hotel to crappier hotel till we found this lovely home away from home!  All of the staff here were the most pleasant and sweetest people I have ever met!  Especially the Director of Sales Mrs. Lena.  She treated me like family the whole time we were here.  All the staff from the front desk (Kayleigh) to the the housekeepers and even the breakfast host were so nice and hospitable to us!  If I were able to rate this hotel higher than a five a would!!!  I felt so safe here.  The other places we had to stay at my truck was broken in to, but here I have never had to worry about safety.  Every morning when I get up to go to work I am greeted by Mrs. Lena's smiling face and her truly sweet and caring words.  I have never felt so at home at a hotel before!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r553010087-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>553010087</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Nicest room in the area</t>
+  </si>
+  <si>
+    <t>New and eay to get to. Clean room. Safe parking lot. Well lit and good parking lot for mechanic truck. Dennys across the highway will deliver food to the front desk for free and give you a 20% discount</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r553088915-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>553088915</t>
+  </si>
+  <si>
+    <t>L. Dillon</t>
+  </si>
+  <si>
+    <t>A phenomenal hotel with beautiful décor and amenities.  The staff were very helpful and provided me with any toiletries  that were needed in my room.  The fitness center was exceptionally clean.  I would highly recommend this hotel for business or pleasure.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r546300021-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -300,9 +420,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We stayed here for 1 night due to it's location to the USS Texas and the Houston Space Center. New hotel, bright and spacious. they have a business center that works quite well and the breakfast is a typical BW. Internet in the room worked awesome.Bathroom was big and had a walk in shower.It is located right beside the main industrial part of town so you do have to drive for restaurants.If I had a minor complaint is that the ice dispensing machine was close to my room and being a light sleeper, I could hear when people were around it, otherwise, I would highly recommend this BW if you are looking for a place to stayMore</t>
   </si>
   <si>
@@ -345,6 +462,48 @@
     <t>I have family in Pasadena and frequently stay in hotels in this area when visiting. This hotel is fairly new and still very clean. Their staff is friendly and go out of their way to help. I was greeted with a friendly smile whether it was 10 am or 10 pm. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r542358042-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>542358042</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Watch the Desk Staff</t>
+  </si>
+  <si>
+    <t>Check your statement carefully.  Charged me an extra nights stay, and still ran the credit, even after being told it was wrong.  could not/would not correct.  took full day of phone calls to the manager to even come close to being charged correctly.  and still not sure it was done correctly.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Best Western Plus Pasadena Inn &amp; Suites, responded to this reviewResponded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Check your statement carefully.  Charged me an extra nights stay, and still ran the credit, even after being told it was wrong.  could not/would not correct.  took full day of phone calls to the manager to even come close to being charged correctly.  and still not sure it was done correctly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r540114840-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>540114840</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Great Staff!!</t>
+  </si>
+  <si>
+    <t>The people here truly make a difference. Kayleigh, Patricia, Suzy, and Alissa always go above and beyond to make sure guest needs are met. Ms. Lena is wonderful, and the owners are so nice. It's a new hotel with beautiful facilities and great amenities. I hope I have the opportunity to visit again. Loved this place!!</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r537526744-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -360,9 +519,6 @@
     <t>This hotel is absolutely beautiful!  More important is the outstanding customer service we received from Elana, Front desk. We were provided service without even needing to ask. Made our experience fun &amp; memorable!!</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r536508197-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -390,6 +546,33 @@
     <t>The housekeeping does a very good job on keeping the rooms clean specially Mrs.Gena. The breakfast is great delicious waffles. Smells clean everywhere you go. Great staff very friendly. Thank you for your service.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r536537621-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>536537621</t>
+  </si>
+  <si>
+    <t>Best hotel I have ever stayed!</t>
+  </si>
+  <si>
+    <t>My son and I were displaced from Harvey. Every 2 weeks we were worried about extensions. Mr Patel was very compassionate and kind - to keep us posted. He provided a very clean and wonderful staff  and never made us feel  like we were any different from any other guest. We are very lucky to have been guests here and to be treated like family  with kindness and respect. I recommend this hotel to everyone - We will forever be grateful to his team for making our stay here perfect!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r534916870-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>534916870</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>I really wanted to give it a 5 star rank but...</t>
+  </si>
+  <si>
+    <t>All of the front desk staff are amazing! Kayleigh with a huge heart has helped me and my family so much, she's an angel! I believe the front desk manager Lena is great at her job! Very personable and respectful. However, Sanjay [-] does not know how to talk with people. He was very rude and I believe that he is not in the correct line of work to be the head manager of a hotel. Having hotel and manager experience, he completely dropped my review for this hotel. Other than that, everything is beautiful and spacious and very comfortable. I highly recommend this hotel to anyone.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r534191194-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -450,6 +633,36 @@
     <t>Brand new and beautiful--this hotel is wonderful. Great desk with lots of USB charging ports, plugs, and space to work. Also, a secure Internet connection that is reliable and fast. The room is large with a separate seating area, nice kitchenette that saved me tons on time and money, and a walk-in shower with a rain head. On-site guest laundry and fitness center, free hot breakfast and happy hours, and a staff that goes above and beyond to meet guest needs. Suzy, Pat, and Kayleigh always have smiles waiting when you go by the front desk. I'm staying long term, so I'm thrilled to find such a great hotel in this area. Highly recommend it!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r530664348-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>530664348</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Really Good</t>
+  </si>
+  <si>
+    <t>Newly built HotelVery good Staff Good deals (Cheap &amp; Best price)Neat and Clean. Very good housekeeping.Prime location and especially near by my work station.I prefer to stay at BEST WESTERN PLUS if get a any chance in future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r527897184-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>527897184</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>AMAZING!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>So beautiful...... Really nice place to stay. Clean, friendly staff. The rooms are really AMAZING. The breakfast was very good. I loved everything about this place. I recommend everybody to stay and to have a wonderful experience.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r527126731-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -495,6 +708,48 @@
     <t xml:space="preserve">We enter and had a welcoming staff, which was a nice feeling. The hotel is very nice looking, colors look fantastic. Our room was a good size. And bathroom shower had double sliding door. We had a king bed nice size room. Breakfast area had the average items. The pool is outside. Easy access to 610, 225, and Sam tollway.. I would come back again. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r517268618-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>517268618</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>New Hotel with  Friendly Staff and Comfortable Accomodations</t>
+  </si>
+  <si>
+    <t>I booked three rooms at this new hotel which is conveniently located close to the Houston Hobby Airport..  The lobby, hallway and other public areas were clean and nicely decorated.  The rooms were clean and comfortable with modern fixtures.  The shower had filled shampoo, conditioner and body wash dispensers.  The breakfast was good. We would stay at this Best Western Plus again.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r512486789-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>512486789</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Friendly &amp; Cozy!</t>
+  </si>
+  <si>
+    <t>I stayed here with my son and we both loved it! We had a two bedroom sweet with a kitchenette and it was super clean and cozy. The staff was very friendly. The also have a BBQ pavilion! We will be in the area again very soon and have decided to upgrade to the full kitchen sweet. Looking forward to grilling and swimming. Also, the coffee and breakfast was great! Do yourself a favor... stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Renee S, Manager at Best Western Plus Pasadena Inn &amp; Suites, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here with my son and we both loved it! We had a two bedroom sweet with a kitchenette and it was super clean and cozy. The staff was very friendly. The also have a BBQ pavilion! We will be in the area again very soon and have decided to upgrade to the full kitchen sweet. Looking forward to grilling and swimming. Also, the coffee and breakfast was great! Do yourself a favor... stay here!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r510285874-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -510,9 +765,6 @@
     <t>The hotel is brand new with every amenity you would need.  I had a kitchen with separate eating area along with sofa and king bed.  It felt like an apartment!  Staff was very friendly and always greeted me.  Great place to stay.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>Renee S, Manager at Best Western Plus Pasadena Inn &amp; Suites, responded to this reviewResponded August 10, 2017</t>
   </si>
   <si>
@@ -559,6 +811,50 @@
   </si>
   <si>
     <t>This hotel is one of the Best we've encountered in a while. The manager Ms Renea is fantastic. The staff is friendly, helpful, and makes you feel really welcome. I must admit the food was delicious, and enough so as not to run out of anything. This is a new hotel so for the price we were very satisfied. I would definitely recommend this hotel. It get's my 5 star rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r503355761-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>503355761</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Awesome place!</t>
+  </si>
+  <si>
+    <t>I absolutely love this place. Very safe with security wrap around privacy fence on property, great staff, one of the best managers (Renee) that I've ever dealt with, very accommodating, modern clean spacious rooms with kitchenette, ice cold AC, and a very comfortable king-size bed, business desk. Daily hot breakfast with lots of options, weekly dinner, great fitness room and pool. They also have a mini store by front desk with lots of goodies. I stayed there 4 nights and enjoyed every minute I was there. MoreShow less</t>
+  </si>
+  <si>
+    <t>I absolutely love this place. Very safe with security wrap around privacy fence on property, great staff, one of the best managers (Renee) that I've ever dealt with, very accommodating, modern clean spacious rooms with kitchenette, ice cold AC, and a very comfortable king-size bed, business desk. Daily hot breakfast with lots of options, weekly dinner, great fitness room and pool. They also have a mini store by front desk with lots of goodies. I stayed there 4 nights and enjoyed every minute I was there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d12513397-r502500491-Best_Western_Plus_Pasadena_Inn_Suites-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>502500491</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>AWFUL!!!</t>
+  </si>
+  <si>
+    <t>My husband and I drove all night long-had to stop to rest @4am. Didn't fall asleep til at least 5-5:30am! Housekeeping RUDE gal came into room 3 TIMES!! Waking us up-7am/7:30/8:30am! First 2 times just standing there, then purposely SLAMMED the door both times! The 3rd time she YELLED at us-waking us up from a dead sleep! "HOUSEKEEPING?!" I yelled back after the 3rd time- said "NO! We're sleeping!" She YELLED back at me- RUDELY- said "WELL, LADY!!! WHAT IS YOUR NAME THEN?!" I YELLED back at the rude B*** our name, &amp; she YELLED back- "WHATEVER!! That's not what I have- I have a different name!" Then slammed door! 
+WHY?! Why does it even matter WHAT our name is?! If u see bodies laying in a bed asleep, quietly shut the door and check w management on WHO it is FIRST!! Then have a manager call our room if there's some big emergency on WHY she MUST get into OUR ROOM immediately to "clean"?! 
+We will never stay at a Best Western again. We are Diamond members with Hilton, have a couple of MILLION points with them- we could've driven further down the road to get a free Hilton SUITE, but we were past the point of exhaustion. This was the cleanest, newest looking hotel in this rough ghetto area! 
+So much for a good "recharge" before we head back on the road! 
+As for the hotel itself- it...My husband and I drove all night long-had to stop to rest @4am. Didn't fall asleep til at least 5-5:30am! Housekeeping RUDE gal came into room 3 TIMES!! Waking us up-7am/7:30/8:30am! First 2 times just standing there, then purposely SLAMMED the door both times! The 3rd time she YELLED at us-waking us up from a dead sleep! "HOUSEKEEPING?!" I yelled back after the 3rd time- said "NO! We're sleeping!" She YELLED back at me- RUDELY- said "WELL, LADY!!! WHAT IS YOUR NAME THEN?!" I YELLED back at the rude B*** our name, &amp; she YELLED back- "WHATEVER!! That's not what I have- I have a different name!" Then slammed door! WHY?! Why does it even matter WHAT our name is?! If u see bodies laying in a bed asleep, quietly shut the door and check w management on WHO it is FIRST!! Then have a manager call our room if there's some big emergency on WHY she MUST get into OUR ROOM immediately to "clean"?! We will never stay at a Best Western again. We are Diamond members with Hilton, have a couple of MILLION points with them- we could've driven further down the road to get a free Hilton SUITE, but we were past the point of exhaustion. This was the cleanest, newest looking hotel in this rough ghetto area! So much for a good "recharge" before we head back on the road! As for the hotel itself- it is clean, because its brand new. It's more like a hospital tho- as there are no benches or chairs outside to sit on, as I like to drink my first cup of coffee and my vapor e-cig on a porch or outside. Not here. I'm having to stand in the baking sun on a scorching hot concrete walkway. Can't wait for the hubby to wake up so we can get the heck out of here!! Biggest tip I have for you- DONT FORGET TO LATCH YOUR INTERIOR DOOR &amp; put your "DO NOT DISTURB" sign on your door!! We usually always do that, but weren't thinking clearly, as delirium had set in. (Which is still there- as I've only got about 2 hours of real sleep!) Thanks HOUSEKEEPER RUDE BIA*H!! MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I drove all night long-had to stop to rest @4am. Didn't fall asleep til at least 5-5:30am! Housekeeping RUDE gal came into room 3 TIMES!! Waking us up-7am/7:30/8:30am! First 2 times just standing there, then purposely SLAMMED the door both times! The 3rd time she YELLED at us-waking us up from a dead sleep! "HOUSEKEEPING?!" I yelled back after the 3rd time- said "NO! We're sleeping!" She YELLED back at me- RUDELY- said "WELL, LADY!!! WHAT IS YOUR NAME THEN?!" I YELLED back at the rude B*** our name, &amp; she YELLED back- "WHATEVER!! That's not what I have- I have a different name!" Then slammed door! 
+WHY?! Why does it even matter WHAT our name is?! If u see bodies laying in a bed asleep, quietly shut the door and check w management on WHO it is FIRST!! Then have a manager call our room if there's some big emergency on WHY she MUST get into OUR ROOM immediately to "clean"?! 
+We will never stay at a Best Western again. We are Diamond members with Hilton, have a couple of MILLION points with them- we could've driven further down the road to get a free Hilton SUITE, but we were past the point of exhaustion. This was the cleanest, newest looking hotel in this rough ghetto area! 
+So much for a good "recharge" before we head back on the road! 
+As for the hotel itself- it...My husband and I drove all night long-had to stop to rest @4am. Didn't fall asleep til at least 5-5:30am! Housekeeping RUDE gal came into room 3 TIMES!! Waking us up-7am/7:30/8:30am! First 2 times just standing there, then purposely SLAMMED the door both times! The 3rd time she YELLED at us-waking us up from a dead sleep! "HOUSEKEEPING?!" I yelled back after the 3rd time- said "NO! We're sleeping!" She YELLED back at me- RUDELY- said "WELL, LADY!!! WHAT IS YOUR NAME THEN?!" I YELLED back at the rude B*** our name, &amp; she YELLED back- "WHATEVER!! That's not what I have- I have a different name!" Then slammed door! WHY?! Why does it even matter WHAT our name is?! If u see bodies laying in a bed asleep, quietly shut the door and check w management on WHO it is FIRST!! Then have a manager call our room if there's some big emergency on WHY she MUST get into OUR ROOM immediately to "clean"?! We will never stay at a Best Western again. We are Diamond members with Hilton, have a couple of MILLION points with them- we could've driven further down the road to get a free Hilton SUITE, but we were past the point of exhaustion. This was the cleanest, newest looking hotel in this rough ghetto area! So much for a good "recharge" before we head back on the road! As for the hotel itself- it is clean, because its brand new. It's more like a hospital tho- as there are no benches or chairs outside to sit on, as I like to drink my first cup of coffee and my vapor e-cig on a porch or outside. Not here. I'm having to stand in the baking sun on a scorching hot concrete walkway. Can't wait for the hubby to wake up so we can get the heck out of here!! Biggest tip I have for you- DONT FORGET TO LATCH YOUR INTERIOR DOOR &amp; put your "DO NOT DISTURB" sign on your door!! We usually always do that, but weren't thinking clearly, as delirium had set in. (Which is still there- as I've only got about 2 hours of real sleep!) Thanks HOUSEKEEPER RUDE BIA*H!! More</t>
   </si>
 </sst>
 </file>
@@ -1101,19 +1397,25 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1129,7 +1431,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1138,39 +1440,43 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1186,7 +1492,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1195,49 +1501,39 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>60</v>
       </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
       <c r="O4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1253,7 +1549,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1262,43 +1558,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
         <v>65</v>
       </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1314,7 +1606,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1323,53 +1615,49 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>76</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
         <v>77</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1385,7 +1673,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1394,25 +1682,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
         <v>80</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>81</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>82</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>84</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1420,8 +1708,12 @@
       <c r="Q7" t="n">
         <v>5</v>
       </c>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>5</v>
@@ -1430,13 +1722,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
         <v>85</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>86</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1452,7 +1744,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1461,38 +1753,34 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
-        <v>92</v>
-      </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
         <v>5</v>
       </c>
       <c r="R8" t="n">
         <v>5</v>
       </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1500,10 +1788,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" t="s">
+        <v>93</v>
+      </c>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -1519,7 +1811,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1528,38 +1820,32 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
         <v>97</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>98</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>99</v>
       </c>
-      <c r="L9" t="s">
-        <v>100</v>
-      </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
         <v>5</v>
       </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -1570,7 +1856,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1586,7 +1872,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1595,41 +1881,41 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
         <v>102</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>103</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>104</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
         <v>105</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>84</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1684,21 +1970,31 @@
         <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -1714,7 +2010,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1723,34 +2019,38 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -1761,7 +2061,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
@@ -1777,7 +2077,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1786,39 +2086,49 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>123</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>114</v>
-      </c>
       <c r="O13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
@@ -1834,7 +2144,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1843,39 +2153,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -1891,7 +2211,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1900,16 +2220,16 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
@@ -1918,14 +2238,20 @@
         <v>114</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -1933,14 +2259,10 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>134</v>
-      </c>
-      <c r="X15" t="s">
-        <v>135</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
@@ -1956,7 +2278,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1965,32 +2287,38 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
       <c r="R16" t="n">
         <v>5</v>
       </c>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -1998,10 +2326,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>145</v>
+      </c>
+      <c r="X16" t="s">
+        <v>146</v>
+      </c>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
@@ -2017,7 +2349,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2026,39 +2358,53 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>153</v>
+      </c>
+      <c r="X17" t="s">
+        <v>154</v>
+      </c>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -2074,7 +2420,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2083,39 +2429,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -2131,7 +2487,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2140,25 +2496,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2172,7 +2528,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
@@ -2188,7 +2544,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2197,43 +2553,45 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>161</v>
       </c>
-      <c r="K20" t="s">
-        <v>162</v>
-      </c>
-      <c r="L20" t="s">
-        <v>163</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>164</v>
-      </c>
       <c r="O20" t="s">
-        <v>58</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>165</v>
-      </c>
-      <c r="X20" t="s">
-        <v>166</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
@@ -2249,7 +2607,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2258,25 +2616,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
         <v>169</v>
       </c>
-      <c r="J21" t="s">
-        <v>170</v>
-      </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2287,14 +2645,10 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>165</v>
-      </c>
-      <c r="X21" t="s">
-        <v>166</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
@@ -2310,7 +2664,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2319,25 +2673,25 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="O22" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2358,14 +2712,978 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>165</v>
-      </c>
-      <c r="X22" t="s">
-        <v>166</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>161</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>161</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>161</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>195</v>
+      </c>
+      <c r="X25" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>161</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>203</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>203</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>203</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" t="s">
+        <v>229</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>203</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" t="s">
+        <v>233</v>
+      </c>
+      <c r="L32" t="s">
+        <v>234</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>235</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>235</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>241</v>
+      </c>
+      <c r="X33" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>235</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>249</v>
+      </c>
+      <c r="X34" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" t="s">
+        <v>255</v>
+      </c>
+      <c r="L35" t="s">
+        <v>256</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>235</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>249</v>
+      </c>
+      <c r="X35" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>259</v>
+      </c>
+      <c r="J36" t="s">
+        <v>260</v>
+      </c>
+      <c r="K36" t="s">
+        <v>261</v>
+      </c>
+      <c r="L36" t="s">
+        <v>262</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>263</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>249</v>
+      </c>
+      <c r="X36" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s">
+        <v>269</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>249</v>
+      </c>
+      <c r="X37" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66339</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>271</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>272</v>
+      </c>
+      <c r="J38" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s">
+        <v>275</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>263</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>249</v>
+      </c>
+      <c r="X38" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
